--- a/build/classes/jc/doctos/HojaInstruccion.xlsx
+++ b/build/classes/jc/doctos/HojaInstruccion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\AppData\Local\Programs\Python\Python310\JC-SGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\AppData\Local\Programs\Python\Python310\JC-SGC\src\jc\doctos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D3E31-A5D3-4593-9042-0F3B8965523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="1" r:id="rId1"/>
@@ -803,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1948,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2007,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2028,7 +2029,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
@@ -2046,7 +2046,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
@@ -2062,8 +2061,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2083,7 +2082,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2096,17 +2095,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2114,26 +2109,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2143,10 +2122,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2158,54 +2133,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2228,219 +2164,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2449,6 +2179,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2456,24 +2219,171 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2542,7 +2452,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2610,7 +2526,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2679,7 +2601,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 49"/>
+        <xdr:cNvPr id="4" name="Group 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2694,7 +2622,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 32" descr="White marble"/>
+          <xdr:cNvPr id="5" name="Rectangle 32" descr="White marble">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2729,7 +2663,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Line 33"/>
+          <xdr:cNvPr id="6" name="Line 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2762,7 +2702,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Line 34"/>
+          <xdr:cNvPr id="7" name="Line 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2795,7 +2741,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Line 35"/>
+          <xdr:cNvPr id="8" name="Line 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2828,7 +2780,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Line 36"/>
+          <xdr:cNvPr id="9" name="Line 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2861,7 +2819,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Line 37"/>
+          <xdr:cNvPr id="10" name="Line 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2894,7 +2858,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Line 38"/>
+          <xdr:cNvPr id="11" name="Line 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2927,7 +2897,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="AutoShape 40"/>
+          <xdr:cNvPr id="12" name="AutoShape 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2962,7 +2938,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="AutoShape 42"/>
+          <xdr:cNvPr id="13" name="AutoShape 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2997,7 +2979,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="AutoShape 45"/>
+          <xdr:cNvPr id="14" name="AutoShape 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3032,7 +3020,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="AutoShape 46"/>
+          <xdr:cNvPr id="15" name="AutoShape 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3067,7 +3061,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="AutoShape 47"/>
+          <xdr:cNvPr id="16" name="AutoShape 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3102,7 +3102,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="AutoShape 48"/>
+          <xdr:cNvPr id="17" name="AutoShape 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3153,7 +3159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 57"/>
+        <xdr:cNvPr id="18" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3221,7 +3233,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 58"/>
+        <xdr:cNvPr id="19" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3294,7 +3312,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3362,7 +3386,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3680,14 +3710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:G43"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3760,10 +3790,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="190"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
     </row>
@@ -3774,8 +3804,8 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
     </row>
@@ -3823,15 +3853,15 @@
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
@@ -3885,8 +3915,8 @@
       <c r="E14" s="30"/>
       <c r="F14" s="33"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="142"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3911,21 +3941,21 @@
       <c r="H16" s="34"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="36"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -3937,7 +3967,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
     </row>
-    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -3949,7 +3979,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="43" t="s">
         <v>12</v>
@@ -3958,463 +3988,448 @@
         <v>13</v>
       </c>
       <c r="D20" s="44"/>
-      <c r="E20" s="164" t="s">
+      <c r="E20" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
       <c r="I20" s="45"/>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="45"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="45"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
       <c r="I23" s="45"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="45"/>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="45"/>
       <c r="J25" s="31"/>
       <c r="K25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
       <c r="I26" s="45"/>
       <c r="J26" s="31"/>
-      <c r="L26" s="47"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
       <c r="I27" s="45"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="45"/>
       <c r="J28" s="31"/>
     </row>
-    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
       <c r="I29" s="45"/>
       <c r="J29" s="31"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
       <c r="I30" s="45"/>
       <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="51"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="26"/>
       <c r="E40" s="8"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="60"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="26"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="238" t="s">
+      <c r="B42" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="240"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="138"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="236"/>
-      <c r="C43" s="236"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="237"/>
-      <c r="I44" s="49"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="234"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="235"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="122"/>
       <c r="I45" s="8"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="61"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="175" t="s">
+      <c r="F48" s="60"/>
+      <c r="G48" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="176"/>
-      <c r="I48" s="177"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="157"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="61"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="180"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="61"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="180"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="160"/>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="61"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="180"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="160"/>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="61"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="179"/>
-      <c r="I52" s="180"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="160"/>
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="61"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="179"/>
-      <c r="I53" s="180"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="160"/>
       <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="61"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="181"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="183"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="163"/>
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4429,23 +4444,23 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="44"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
       <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="44"/>
-      <c r="B59" s="184" t="s">
+      <c r="B59" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="184"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -4455,9 +4470,9 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="44"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -4467,37 +4482,31 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="185"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="187"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="68"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="66"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="159" t="s">
+      <c r="B62" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="68"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:F62"/>
@@ -4510,31 +4519,13 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44:G44">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:G45">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
-      <formula>35</formula>
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>65</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.62992125984251968" right="0.47244094488188981" top="0.27559055118110237" bottom="0.47244094488188981" header="0.15748031496062992" footer="0"/>
   <pageSetup scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -4551,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4580,2163 +4571,2156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
-      <c r="B3" s="223" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="68"/>
     </row>
     <row r="4" spans="1:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="70"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="222"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="70"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="230" t="s">
+      <c r="B6" s="178"/>
+      <c r="C6" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230" t="s">
+      <c r="D6" s="179"/>
+      <c r="E6" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="230" t="s">
+      <c r="F6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="230"/>
-      <c r="K6" s="71" t="s">
+      <c r="J6" s="179"/>
+      <c r="K6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="233"/>
-      <c r="N6" s="72" t="s">
+      <c r="M6" s="182"/>
+      <c r="N6" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="70"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="183"/>
+      <c r="C7" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="73" t="s">
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="82">
         <v>40271</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="79" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88" t="s">
+      <c r="K8" s="85"/>
+      <c r="L8" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="70"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="73" t="s">
+      <c r="A9" s="184"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>40218</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="79" t="s">
+      <c r="E9" s="83"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="70"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="89" t="s">
+      <c r="A10" s="184"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="56"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88" t="s">
+      <c r="K10" s="85"/>
+      <c r="L10" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="70"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="68"/>
     </row>
     <row r="11" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="93" t="s">
+      <c r="B11" s="183"/>
+      <c r="C11" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="93" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="82" t="s">
+      <c r="K11" s="90"/>
+      <c r="L11" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="70"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="68"/>
     </row>
     <row r="12" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="79" t="s">
+      <c r="A12" s="184"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="91">
         <v>40585</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="79" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88" t="s">
+      <c r="K12" s="85"/>
+      <c r="L12" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="83"/>
-      <c r="O12" s="70"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="79" t="s">
+      <c r="A13" s="184"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="91">
         <v>40585</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="79" t="s">
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88" t="s">
+      <c r="K13" s="85"/>
+      <c r="L13" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="70"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="68"/>
     </row>
     <row r="14" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="92" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="79" t="s">
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88" t="s">
+      <c r="K14" s="85"/>
+      <c r="L14" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="80" t="s">
+      <c r="M14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="70"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="68"/>
     </row>
     <row r="15" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="93" t="s">
+      <c r="B15" s="183"/>
+      <c r="C15" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="100" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102" t="s">
+      <c r="K15" s="93"/>
+      <c r="L15" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="103" t="s">
+      <c r="M15" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="70"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="79" t="s">
+      <c r="A16" s="184"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="91">
         <v>40211</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="105" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="107" t="s">
+      <c r="K16" s="93"/>
+      <c r="L16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="70"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="79" t="s">
+      <c r="A17" s="184"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="105" t="s">
+      <c r="D17" s="91"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="107" t="s">
+      <c r="K17" s="93"/>
+      <c r="L17" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="108" t="s">
+      <c r="M17" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="70"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="18" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="203"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="92" t="s">
+      <c r="A18" s="184"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="107" t="s">
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="101"/>
-      <c r="O18" s="70"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="68"/>
     </row>
     <row r="19" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="203"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="89" t="s">
+      <c r="A19" s="184"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="107" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="108" t="s">
+      <c r="M19" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="101"/>
-      <c r="O19" s="70"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="68"/>
     </row>
     <row r="20" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="107" t="s">
+      <c r="A20" s="184"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="N20" s="101"/>
-      <c r="O20" s="70"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="68"/>
     </row>
     <row r="21" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="107" t="s">
+      <c r="A21" s="184"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="108" t="s">
+      <c r="M21" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="70"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="68"/>
     </row>
     <row r="22" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="93" t="s">
+      <c r="B22" s="183"/>
+      <c r="C22" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="75" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="111" t="s">
+      <c r="J22" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="82" t="s">
+      <c r="K22" s="90"/>
+      <c r="L22" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="78" t="s">
+      <c r="M22" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="70"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="68"/>
     </row>
     <row r="23" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="203"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="79" t="s">
+      <c r="A23" s="184"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="91">
         <v>35850</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="88" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="80" t="s">
+      <c r="M23" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="83"/>
-      <c r="O23" s="70"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="68"/>
     </row>
     <row r="24" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="203"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="79" t="s">
+      <c r="A24" s="184"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="91">
         <v>40218</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="88" t="s">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="80" t="s">
+      <c r="M24" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="N24" s="83"/>
-      <c r="O24" s="70"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="68"/>
     </row>
     <row r="25" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="203"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="92" t="s">
+      <c r="A25" s="184"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="88" t="s">
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="80" t="s">
+      <c r="M25" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N25" s="83"/>
-      <c r="O25" s="70"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="68"/>
     </row>
     <row r="26" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="93" t="s">
+      <c r="B26" s="183"/>
+      <c r="C26" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="82" t="s">
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="113" t="s">
+      <c r="J26" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="82" t="s">
+      <c r="K26" s="90"/>
+      <c r="L26" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="78" t="s">
+      <c r="M26" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="83"/>
-      <c r="O26" s="70"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="68"/>
     </row>
     <row r="27" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="79" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="91">
         <v>35850</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="88" t="s">
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="80" t="s">
+      <c r="M27" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="83"/>
-      <c r="O27" s="70"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="68"/>
     </row>
     <row r="28" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="203"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="79" t="s">
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="91">
         <v>40218</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="88" t="s">
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="80" t="s">
+      <c r="M28" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="83"/>
-      <c r="O28" s="70"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="68"/>
     </row>
     <row r="29" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="203"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="92" t="s">
+      <c r="A29" s="184"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="80" t="s">
+      <c r="M29" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="83"/>
-      <c r="O29" s="70"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="201" t="s">
+      <c r="A30" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="183"/>
+      <c r="C30" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="93" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="78" t="s">
+      <c r="J30" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="82" t="s">
+      <c r="K30" s="90"/>
+      <c r="L30" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="113" t="s">
+      <c r="M30" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="N30" s="83"/>
-      <c r="O30" s="70"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="203"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="79" t="s">
+      <c r="A31" s="184"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="91">
         <v>36725</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="79" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="80" t="s">
+      <c r="J31" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88" t="s">
+      <c r="K31" s="85"/>
+      <c r="L31" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="M31" s="109" t="s">
+      <c r="M31" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="83"/>
-      <c r="O31" s="70"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="68"/>
     </row>
     <row r="32" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="203"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="79" t="s">
+      <c r="A32" s="184"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="91">
         <v>40218</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="79" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J32" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88" t="s">
+      <c r="K32" s="85"/>
+      <c r="L32" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="109" t="s">
+      <c r="M32" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="N32" s="83"/>
-      <c r="O32" s="70"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="68"/>
     </row>
     <row r="33" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="203"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="92" t="s">
+      <c r="A33" s="184"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="98" t="s">
+      <c r="D33" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="79" t="s">
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="80" t="s">
+      <c r="J33" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88" t="s">
+      <c r="K33" s="85"/>
+      <c r="L33" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="109" t="s">
+      <c r="M33" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="83"/>
-      <c r="O33" s="70"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="68"/>
     </row>
     <row r="34" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="210"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88" t="s">
+      <c r="A34" s="186"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="109" t="s">
+      <c r="M34" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="N34" s="83"/>
-      <c r="O34" s="70"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="68"/>
     </row>
     <row r="35" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="205"/>
-      <c r="B35" s="206"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="114" t="s">
+      <c r="A35" s="188"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="M35" s="117" t="s">
+      <c r="M35" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="N35" s="83"/>
-      <c r="O35" s="70"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="68"/>
     </row>
     <row r="36" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
+      <c r="A36" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="93" t="s">
+      <c r="B36" s="183"/>
+      <c r="C36" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="82" t="s">
+      <c r="E36" s="73"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="113" t="s">
+      <c r="J36" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="K36" s="96"/>
-      <c r="L36" s="82" t="s">
+      <c r="K36" s="90"/>
+      <c r="L36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="78" t="s">
+      <c r="M36" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="83"/>
-      <c r="O36" s="70"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="68"/>
     </row>
     <row r="37" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="79" t="s">
+      <c r="A37" s="184"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="91">
         <v>37092</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="199" t="s">
+      <c r="E37" s="83"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="200"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88" t="s">
+      <c r="J37" s="191"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="80" t="s">
+      <c r="M37" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="83"/>
-      <c r="O37" s="70"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="68"/>
     </row>
     <row r="38" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="203"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="79" t="s">
+      <c r="A38" s="184"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="91">
         <v>40218</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="88" t="s">
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="80" t="s">
+      <c r="M38" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="N38" s="83"/>
-      <c r="O38" s="70"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="68"/>
     </row>
     <row r="39" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="203"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="92" t="s">
+      <c r="A39" s="184"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88" t="s">
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="80" t="s">
+      <c r="M39" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N39" s="83"/>
-      <c r="O39" s="70"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="68"/>
     </row>
     <row r="40" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="213"/>
-      <c r="C40" s="100" t="s">
+      <c r="B40" s="183"/>
+      <c r="C40" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="100" t="s">
+      <c r="E40" s="73"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="99" t="s">
+      <c r="J40" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="K40" s="123"/>
-      <c r="L40" s="102" t="s">
+      <c r="K40" s="90"/>
+      <c r="L40" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="103" t="s">
+      <c r="M40" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="83"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="61"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
     </row>
     <row r="41" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
-      <c r="B41" s="215"/>
-      <c r="C41" s="105" t="s">
+      <c r="A41" s="184"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="91">
         <v>36755</v>
       </c>
-      <c r="E41" s="128"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="105" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="106" t="s">
+      <c r="J41" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K41" s="130"/>
-      <c r="L41" s="107" t="s">
+      <c r="K41" s="85"/>
+      <c r="L41" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="108" t="s">
+      <c r="M41" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="N41" s="83"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="126"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="105"/>
     </row>
     <row r="42" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="214"/>
-      <c r="B42" s="215"/>
-      <c r="C42" s="105" t="s">
+      <c r="A42" s="184"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="91">
         <v>40218</v>
       </c>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="105" t="s">
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="106" t="s">
+      <c r="J42" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="K42" s="130"/>
-      <c r="L42" s="107" t="s">
+      <c r="K42" s="85"/>
+      <c r="L42" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M42" s="108" t="s">
+      <c r="M42" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="N42" s="83"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="126"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="105"/>
     </row>
     <row r="43" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="214"/>
-      <c r="B43" s="215"/>
-      <c r="C43" s="131" t="s">
+      <c r="A43" s="184"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="132" t="s">
+      <c r="D43" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="105" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J43" s="106" t="s">
+      <c r="J43" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="130"/>
-      <c r="L43" s="107" t="s">
+      <c r="K43" s="85"/>
+      <c r="L43" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="108" t="s">
+      <c r="M43" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="N43" s="83"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="126"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="105"/>
     </row>
     <row r="44" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="216"/>
-      <c r="B44" s="217"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="105" t="s">
+      <c r="A44" s="186"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="106" t="s">
+      <c r="J44" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="K44" s="130"/>
-      <c r="L44" s="107" t="s">
+      <c r="K44" s="85"/>
+      <c r="L44" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="108" t="s">
+      <c r="M44" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="N44" s="83"/>
-      <c r="O44" s="124"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="61"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
     </row>
     <row r="45" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="216"/>
-      <c r="B45" s="217"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="107" t="s">
+      <c r="A45" s="186"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="108" t="s">
+      <c r="M45" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="N45" s="83"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="61"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="105"/>
     </row>
     <row r="46" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="216"/>
-      <c r="B46" s="217"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="107" t="s">
+      <c r="A46" s="186"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="108" t="s">
+      <c r="M46" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="N46" s="83"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="105"/>
     </row>
     <row r="47" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="219"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="133" t="s">
+      <c r="A47" s="188"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="M47" s="136" t="s">
+      <c r="M47" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="83"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="61"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="104"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
     </row>
     <row r="48" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="201" t="s">
+      <c r="A48" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="202"/>
-      <c r="C48" s="93" t="s">
+      <c r="B48" s="183"/>
+      <c r="C48" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="D48" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="79" t="s">
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="80" t="s">
+      <c r="J48" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="96"/>
-      <c r="L48" s="82" t="s">
+      <c r="K48" s="90"/>
+      <c r="L48" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M48" s="113" t="s">
+      <c r="M48" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="83"/>
-      <c r="O48" s="70"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="61"/>
-    </row>
-    <row r="49" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="204"/>
-      <c r="C49" s="79" t="s">
+      <c r="N48" s="81"/>
+      <c r="O48" s="68"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="82"/>
+    </row>
+    <row r="49" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="184"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="97">
+      <c r="D49" s="91">
         <v>36314</v>
       </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="79" t="s">
+      <c r="E49" s="83"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="80" t="s">
+      <c r="J49" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="88" t="s">
+      <c r="K49" s="85"/>
+      <c r="L49" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="109" t="s">
+      <c r="M49" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="N49" s="83"/>
-      <c r="O49" s="70"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="61"/>
-    </row>
-    <row r="50" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="204"/>
-      <c r="C50" s="79" t="s">
+      <c r="N49" s="81"/>
+      <c r="O49" s="68"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="82"/>
+    </row>
+    <row r="50" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="184"/>
+      <c r="B50" s="185"/>
+      <c r="C50" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="97">
+      <c r="D50" s="91">
         <v>40218</v>
       </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="79" t="s">
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="80" t="s">
+      <c r="J50" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="88" t="s">
+      <c r="K50" s="85"/>
+      <c r="L50" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="109" t="s">
+      <c r="M50" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="N50" s="83"/>
-      <c r="O50" s="70"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="61"/>
-    </row>
-    <row r="51" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="203"/>
-      <c r="B51" s="204"/>
-      <c r="C51" s="92" t="s">
+      <c r="N50" s="81"/>
+      <c r="O50" s="68"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="87"/>
+    </row>
+    <row r="51" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="184"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="98" t="s">
+      <c r="D51" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="79" t="s">
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="80" t="s">
+      <c r="J51" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="K51" s="87"/>
-      <c r="L51" s="88" t="s">
+      <c r="K51" s="85"/>
+      <c r="L51" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M51" s="109" t="s">
+      <c r="M51" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="N51" s="83"/>
-      <c r="O51" s="70"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
-    </row>
-    <row r="52" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="210"/>
-      <c r="B52" s="211"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="88" t="s">
+      <c r="N51" s="81"/>
+      <c r="O51" s="68"/>
+    </row>
+    <row r="52" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="186"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="109" t="s">
+      <c r="M52" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="N52" s="83"/>
-      <c r="O52" s="70"/>
-    </row>
-    <row r="53" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="210"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="88" t="s">
+      <c r="N52" s="81"/>
+      <c r="O52" s="68"/>
+    </row>
+    <row r="53" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="186"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M53" s="109" t="s">
+      <c r="M53" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="N53" s="83"/>
-      <c r="O53" s="70"/>
-    </row>
-    <row r="54" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="210"/>
-      <c r="B54" s="211"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="88" t="s">
+      <c r="N53" s="81"/>
+      <c r="O53" s="68"/>
+    </row>
+    <row r="54" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="186"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="M54" s="109" t="s">
+      <c r="M54" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="N54" s="83"/>
-      <c r="O54" s="70"/>
-    </row>
-    <row r="55" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="205"/>
-      <c r="B55" s="206"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="114" t="s">
+      <c r="N54" s="81"/>
+      <c r="O54" s="68"/>
+    </row>
+    <row r="55" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="188"/>
+      <c r="B55" s="189"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="M55" s="117" t="s">
+      <c r="M55" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="70"/>
-    </row>
-    <row r="56" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="201" t="s">
+      <c r="N55" s="81"/>
+      <c r="O55" s="68"/>
+    </row>
+    <row r="56" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="202"/>
-      <c r="C56" s="93" t="s">
+      <c r="B56" s="183"/>
+      <c r="C56" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="94" t="s">
+      <c r="D56" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="79" t="s">
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J56" s="80" t="s">
+      <c r="J56" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="K56" s="96"/>
-      <c r="L56" s="82" t="s">
+      <c r="K56" s="90"/>
+      <c r="L56" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="M56" s="113" t="s">
+      <c r="M56" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="N56" s="83"/>
-      <c r="O56" s="70"/>
-    </row>
-    <row r="57" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="203"/>
-      <c r="B57" s="204"/>
-      <c r="C57" s="79" t="s">
+      <c r="N56" s="81"/>
+      <c r="O56" s="68"/>
+    </row>
+    <row r="57" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="184"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="97">
+      <c r="D57" s="91">
         <v>36972</v>
       </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="79" t="s">
+      <c r="E57" s="83"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J57" s="80" t="s">
+      <c r="J57" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88" t="s">
+      <c r="K57" s="85"/>
+      <c r="L57" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="M57" s="109" t="s">
+      <c r="M57" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="N57" s="83"/>
-      <c r="O57" s="70"/>
-    </row>
-    <row r="58" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="203"/>
-      <c r="B58" s="204"/>
-      <c r="C58" s="79" t="s">
+      <c r="N57" s="81"/>
+      <c r="O57" s="68"/>
+    </row>
+    <row r="58" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="184"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="97">
+      <c r="D58" s="91">
         <v>40218</v>
       </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="79" t="s">
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J58" s="80" t="s">
+      <c r="J58" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="K58" s="87"/>
-      <c r="L58" s="88" t="s">
+      <c r="K58" s="85"/>
+      <c r="L58" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="109" t="s">
+      <c r="M58" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="N58" s="83"/>
-      <c r="O58" s="70"/>
-    </row>
-    <row r="59" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="203"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="92" t="s">
+      <c r="N58" s="81"/>
+      <c r="O58" s="68"/>
+    </row>
+    <row r="59" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="184"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="88" t="s">
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="M59" s="109" t="s">
+      <c r="M59" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="N59" s="83"/>
-      <c r="O59" s="70"/>
-    </row>
-    <row r="60" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="210"/>
-      <c r="B60" s="211"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="88" t="s">
+      <c r="N59" s="81"/>
+      <c r="O59" s="68"/>
+    </row>
+    <row r="60" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="186"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M60" s="109" t="s">
+      <c r="M60" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="N60" s="83"/>
-      <c r="O60" s="70"/>
-    </row>
-    <row r="61" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="210"/>
-      <c r="B61" s="211"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="88" t="s">
+      <c r="N60" s="81"/>
+      <c r="O60" s="68"/>
+    </row>
+    <row r="61" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="186"/>
+      <c r="B61" s="187"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="M61" s="109" t="s">
+      <c r="M61" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="N61" s="83"/>
-      <c r="O61" s="70"/>
-    </row>
-    <row r="62" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="210"/>
-      <c r="B62" s="211"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="88" t="s">
+      <c r="N61" s="81"/>
+      <c r="O61" s="68"/>
+    </row>
+    <row r="62" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="186"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="M62" s="141">
+      <c r="M62" s="107">
         <v>1.5E-3</v>
       </c>
-      <c r="N62" s="83"/>
-      <c r="O62" s="70"/>
-    </row>
-    <row r="63" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="201" t="s">
+      <c r="N62" s="81"/>
+      <c r="O62" s="68"/>
+    </row>
+    <row r="63" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="202"/>
-      <c r="C63" s="93" t="s">
+      <c r="B63" s="183"/>
+      <c r="C63" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="94" t="s">
+      <c r="D63" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="75"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="93" t="s">
+      <c r="E63" s="73"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="J63" s="113" t="s">
+      <c r="J63" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="K63" s="96"/>
-      <c r="L63" s="82" t="s">
+      <c r="K63" s="90"/>
+      <c r="L63" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="M63" s="78" t="s">
+      <c r="M63" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="N63" s="83"/>
-      <c r="O63" s="70"/>
-    </row>
-    <row r="64" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="203"/>
-      <c r="B64" s="204"/>
-      <c r="C64" s="79" t="s">
+      <c r="N63" s="81"/>
+      <c r="O63" s="68"/>
+    </row>
+    <row r="64" spans="1:19" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="184"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="97">
+      <c r="D64" s="91">
         <v>37018</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="79" t="s">
+      <c r="E64" s="83"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J64" s="109" t="s">
+      <c r="J64" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="118"/>
-      <c r="L64" s="88" t="s">
+      <c r="K64" s="102"/>
+      <c r="L64" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="M64" s="80" t="s">
+      <c r="M64" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N64" s="83"/>
-      <c r="O64" s="70"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="68"/>
     </row>
     <row r="65" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="203"/>
-      <c r="B65" s="204"/>
-      <c r="C65" s="79" t="s">
+      <c r="A65" s="184"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="97">
+      <c r="D65" s="91">
         <v>40218</v>
       </c>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="88" t="s">
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="M65" s="80" t="s">
+      <c r="M65" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="N65" s="83"/>
-      <c r="O65" s="70"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="68"/>
     </row>
     <row r="66" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
-      <c r="B66" s="204"/>
-      <c r="C66" s="92" t="s">
+      <c r="A66" s="184"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="98" t="s">
+      <c r="D66" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="88" t="s">
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="M66" s="80" t="s">
+      <c r="M66" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="N66" s="83"/>
-      <c r="O66" s="70"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="68"/>
     </row>
     <row r="67" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="201" t="s">
+      <c r="A67" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="202"/>
-      <c r="C67" s="93" t="s">
+      <c r="B67" s="183"/>
+      <c r="C67" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="94" t="s">
+      <c r="D67" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="153" t="s">
+      <c r="E67" s="73"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="J67" s="154" t="s">
+      <c r="J67" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="K67" s="96"/>
-      <c r="L67" s="82" t="s">
+      <c r="K67" s="90"/>
+      <c r="L67" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M67" s="78" t="s">
+      <c r="M67" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="N67" s="83"/>
-      <c r="O67" s="70"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="68"/>
     </row>
     <row r="68" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="203"/>
-      <c r="B68" s="204"/>
-      <c r="C68" s="79" t="s">
+      <c r="A68" s="184"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="97">
+      <c r="D68" s="91">
         <v>38266</v>
       </c>
-      <c r="E68" s="85"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="88" t="s">
+      <c r="E68" s="83"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M68" s="80" t="s">
+      <c r="M68" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="N68" s="83"/>
-      <c r="O68" s="70"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="68"/>
     </row>
     <row r="69" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="203"/>
-      <c r="B69" s="204"/>
-      <c r="C69" s="79" t="s">
+      <c r="A69" s="184"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="97">
+      <c r="D69" s="91">
         <v>40218</v>
       </c>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="142"/>
-      <c r="K69" s="87"/>
-      <c r="L69" s="88" t="s">
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M69" s="80" t="s">
+      <c r="M69" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="N69" s="83"/>
-      <c r="O69" s="70"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="68"/>
     </row>
     <row r="70" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="203"/>
-      <c r="B70" s="204"/>
-      <c r="C70" s="92" t="s">
+      <c r="A70" s="184"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="98" t="s">
+      <c r="D70" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="88" t="s">
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M70" s="80" t="s">
+      <c r="M70" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="N70" s="83"/>
-      <c r="O70" s="70"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="68"/>
     </row>
     <row r="71" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="201" t="s">
+      <c r="A71" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="202"/>
-      <c r="C71" s="93" t="s">
+      <c r="B71" s="183"/>
+      <c r="C71" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="94" t="s">
+      <c r="D71" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="93" t="s">
+      <c r="E71" s="73"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="78" t="s">
+      <c r="J71" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="K71" s="143"/>
-      <c r="L71" s="82" t="s">
+      <c r="K71" s="108"/>
+      <c r="L71" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M71" s="78" t="s">
+      <c r="M71" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="N71" s="144"/>
-      <c r="O71" s="70"/>
+      <c r="N71" s="109"/>
+      <c r="O71" s="68"/>
     </row>
     <row r="72" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="203"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="79" t="s">
+      <c r="A72" s="184"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="97">
+      <c r="D72" s="91">
         <v>40221</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="79" t="s">
+      <c r="E72" s="83"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J72" s="80" t="s">
+      <c r="J72" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="K72" s="143"/>
-      <c r="L72" s="88" t="s">
+      <c r="K72" s="108"/>
+      <c r="L72" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="80" t="s">
+      <c r="M72" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="N72" s="144"/>
-      <c r="O72" s="70"/>
+      <c r="N72" s="109"/>
+      <c r="O72" s="68"/>
     </row>
     <row r="73" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="203"/>
-      <c r="B73" s="204"/>
-      <c r="C73" s="79" t="s">
+      <c r="A73" s="184"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="79" t="s">
+      <c r="D73" s="91"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J73" s="112" t="s">
+      <c r="J73" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="K73" s="145"/>
-      <c r="L73" s="88" t="s">
+      <c r="K73" s="110"/>
+      <c r="L73" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M73" s="80" t="s">
+      <c r="M73" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="N73" s="144"/>
-      <c r="O73" s="70"/>
+      <c r="N73" s="109"/>
+      <c r="O73" s="68"/>
     </row>
     <row r="74" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="203"/>
-      <c r="B74" s="204"/>
-      <c r="C74" s="92" t="s">
+      <c r="A74" s="184"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="98" t="s">
+      <c r="D74" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="79" t="s">
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="J74" s="112" t="s">
+      <c r="J74" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="K74" s="87"/>
-      <c r="L74" s="88" t="s">
+      <c r="K74" s="85"/>
+      <c r="L74" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M74" s="80" t="s">
+      <c r="M74" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N74" s="144"/>
-      <c r="O74" s="70"/>
+      <c r="N74" s="109"/>
+      <c r="O74" s="68"/>
     </row>
     <row r="75" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="205"/>
-      <c r="B75" s="206"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="116"/>
-      <c r="H75" s="116"/>
-      <c r="I75" s="207" t="s">
+      <c r="A75" s="188"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="J75" s="208"/>
-      <c r="K75" s="146"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="115"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="70"/>
+      <c r="J75" s="193"/>
+      <c r="K75" s="111"/>
+      <c r="L75" s="98"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="68"/>
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="201" t="s">
+      <c r="A76" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="202"/>
-      <c r="C76" s="93" t="s">
+      <c r="B76" s="183"/>
+      <c r="C76" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="93" t="s">
+      <c r="E76" s="73"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="J76" s="78" t="s">
+      <c r="J76" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K76" s="143"/>
-      <c r="L76" s="82" t="s">
+      <c r="K76" s="108"/>
+      <c r="L76" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M76" s="147" t="s">
+      <c r="M76" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="N76" s="144"/>
+      <c r="N76" s="109"/>
     </row>
     <row r="77" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="203"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="79" t="s">
+      <c r="A77" s="184"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="97">
+      <c r="D77" s="91">
         <v>40211</v>
       </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="79" t="s">
+      <c r="E77" s="83"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="86" t="s">
+      <c r="J77" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="K77" s="143"/>
-      <c r="L77" s="88" t="s">
+      <c r="K77" s="108"/>
+      <c r="L77" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M77" s="141">
+      <c r="M77" s="107">
         <v>1.35E-2</v>
       </c>
-      <c r="N77" s="144"/>
+      <c r="N77" s="109"/>
     </row>
     <row r="78" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="203"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="79" t="s">
+      <c r="A78" s="184"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="97"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="79" t="s">
+      <c r="D78" s="91"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="86" t="s">
+      <c r="J78" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="K78" s="143"/>
-      <c r="L78" s="88" t="s">
+      <c r="K78" s="108"/>
+      <c r="L78" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="M78" s="80" t="s">
+      <c r="M78" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="N78" s="144"/>
+      <c r="N78" s="109"/>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="203"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="92" t="s">
+      <c r="A79" s="184"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="79" t="s">
+      <c r="E79" s="83"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="J79" s="86" t="s">
+      <c r="J79" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="K79" s="148"/>
-      <c r="L79" s="88" t="s">
+      <c r="K79" s="113"/>
+      <c r="L79" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M79" s="80" t="s">
+      <c r="M79" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N79" s="144"/>
+      <c r="N79" s="109"/>
     </row>
     <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="203"/>
-      <c r="B80" s="204"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="98"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="207" t="s">
+      <c r="A80" s="184"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="J80" s="209"/>
-      <c r="K80" s="149"/>
-      <c r="L80" s="79" t="s">
+      <c r="J80" s="194"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="M80" s="80" t="s">
+      <c r="M80" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="N80" s="144"/>
+      <c r="N80" s="109"/>
     </row>
     <row r="81" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="205"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="150"/>
-      <c r="F81" s="151"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="152"/>
-      <c r="L81" s="114" t="s">
+      <c r="A81" s="188"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="M81" s="115" t="s">
+      <c r="M81" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="N81" s="60"/>
+      <c r="N81" s="59"/>
     </row>
     <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A67:B70"/>
+    <mergeCell ref="A71:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A76:B81"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="A63:B66"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="A15:B21"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="A30:B35"/>
+    <mergeCell ref="A36:B39"/>
+    <mergeCell ref="A40:B47"/>
+    <mergeCell ref="A48:B55"/>
+    <mergeCell ref="A56:B62"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:N5"/>
     <mergeCell ref="A6:B6"/>
@@ -6744,23 +6728,6 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A30:B35"/>
-    <mergeCell ref="A36:B39"/>
-    <mergeCell ref="A40:B47"/>
-    <mergeCell ref="A48:B55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="A11:B14"/>
-    <mergeCell ref="A15:B21"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A67:B70"/>
-    <mergeCell ref="A71:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A76:B81"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="A63:B66"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.15748031496062992" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.19685039370078741"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
